--- a/tests/data/0311_Template_MAWebApp.xlsx
+++ b/tests/data/0311_Template_MAWebApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryaguettler/Desktop/Research/GloBI/epinterface/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74334A24-9004-794E-8E27-6B570A235CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4761CDD3-12C7-0541-A72A-D2EFB63557EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" tabRatio="926" xr2:uid="{46D55ACF-0183-F346-B7C2-C9B3BC712B05}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" tabRatio="926" firstSheet="10" activeTab="23" xr2:uid="{46D55ACF-0183-F346-B7C2-C9B3BC712B05}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3145" uniqueCount="857">
   <si>
     <t>Name</t>
   </si>
@@ -1683,9 +1683,6 @@
   </si>
   <si>
     <t>NaturalGas</t>
-  </si>
-  <si>
-    <t>DHW_old</t>
   </si>
   <si>
     <t>Air_handling_technology</t>
@@ -5875,8 +5872,8 @@
   </sheetPr>
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5910,10 +5907,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>721</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>722</v>
       </c>
       <c r="D3" s="26"/>
       <c r="G3" s="106" t="s">
@@ -5926,13 +5923,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>401</v>
@@ -5944,7 +5941,7 @@
         <v>308</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>400</v>
@@ -5956,52 +5953,52 @@
         <v>369</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G8" s="64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G9" s="28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G10" s="28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="108" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>321</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J11" s="20"/>
     </row>
@@ -6020,7 +6017,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J14" s="20"/>
     </row>
@@ -6037,7 +6034,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>465</v>
@@ -6047,7 +6044,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="19" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>323</v>
@@ -6075,11 +6072,11 @@
         <v>326</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G20"/>
       <c r="H20" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J20" s="20"/>
     </row>
@@ -6087,7 +6084,7 @@
       <c r="A21" s="19"/>
       <c r="G21" s="88"/>
       <c r="H21" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J21" s="20"/>
     </row>
@@ -6115,7 +6112,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G30" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -6166,11 +6163,11 @@
         <v>371</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C1" s="105"/>
       <c r="D1" s="100" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -6181,18 +6178,18 @@
         <v>483</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B3">
         <v>9.8000000000000007</v>
@@ -6201,15 +6198,15 @@
         <v>313</v>
       </c>
       <c r="D3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B4">
         <v>8.5</v>
@@ -6218,15 +6215,15 @@
         <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B5">
         <v>4.8</v>
@@ -6235,15 +6232,15 @@
         <v>313</v>
       </c>
       <c r="D5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B6">
         <v>5.7</v>
@@ -6252,10 +6249,10 @@
         <v>313</v>
       </c>
       <c r="D6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6584,71 +6581,71 @@
         <v>486</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E2" s="54" t="s">
         <v>487</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H2" s="54" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E3">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C4">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E4">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -6715,7 +6712,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6740,294 +6737,294 @@
         <v>0</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B3">
-        <v>2.4048000000000003</v>
+        <v>7.5708200000000003E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="104"/>
       <c r="D4" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D5" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D32" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D39" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D40" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D43" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -7069,8 +7066,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7084,7 +7081,7 @@
         <v>371</v>
       </c>
       <c r="B1" s="123" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C1" s="124"/>
       <c r="D1" s="124"/>
@@ -7096,59 +7093,59 @@
         <v>0</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2" s="51" t="s">
+        <v>658</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>657</v>
+      </c>
+      <c r="E2" s="51" t="s">
         <v>659</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>658</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>660</v>
-      </c>
       <c r="F2" s="51" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B4" t="s">
         <v>750</v>
       </c>
       <c r="C4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -7233,7 +7230,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7253,11 +7250,11 @@
       <c r="C1" s="67"/>
       <c r="D1" s="67"/>
       <c r="E1" s="67" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F1" s="67"/>
       <c r="G1" s="79" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -7271,21 +7268,21 @@
         <v>493</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B3" t="s">
         <v>376</v>
@@ -7294,22 +7291,22 @@
         <v>498</v>
       </c>
       <c r="D3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E3" s="30">
         <v>0.82</v>
       </c>
       <c r="F3" s="30">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="G3" s="85">
         <f>E3*F3</f>
-        <v>0.49199999999999994</v>
+        <v>0.63959999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B4" t="s">
         <v>376</v>
@@ -7318,22 +7315,22 @@
         <v>498</v>
       </c>
       <c r="D4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E4" s="30">
         <v>0.95</v>
       </c>
       <c r="F4" s="30">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="G4" s="85">
         <f t="shared" ref="G4:G57" si="0">E4*F4</f>
-        <v>0.76</v>
+        <v>0.78849999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
@@ -7342,22 +7339,22 @@
         <v>498</v>
       </c>
       <c r="D5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E5" s="30">
         <v>0.8</v>
       </c>
       <c r="F5" s="30">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="G5" s="85">
         <f t="shared" si="0"/>
-        <v>0.48</v>
+        <v>0.62400000000000011</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B6" t="s">
         <v>376</v>
@@ -7366,66 +7363,70 @@
         <v>498</v>
       </c>
       <c r="D6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E6" s="30">
         <v>0.91</v>
       </c>
       <c r="F6" s="30">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="G6" s="85">
         <f t="shared" si="0"/>
-        <v>0.54600000000000004</v>
+        <v>0.7098000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
       <c r="C7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E7" s="30">
         <v>0.91</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="30">
+        <v>0.78</v>
+      </c>
       <c r="G7" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.7098000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B8" t="s">
         <v>376</v>
       </c>
       <c r="C8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E8" s="30">
         <v>0.91</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="30">
+        <v>0.83</v>
+      </c>
       <c r="G8" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75529999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B9" t="s">
         <v>376</v>
@@ -7434,20 +7435,22 @@
         <v>454</v>
       </c>
       <c r="D9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E9" s="30">
         <v>0.91</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="30">
+        <v>0.67</v>
+      </c>
       <c r="G9" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.60970000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B10" t="s">
         <v>376</v>
@@ -7456,20 +7459,22 @@
         <v>454</v>
       </c>
       <c r="D10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E10" s="30">
         <v>0.91</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="30">
+        <v>0.75</v>
+      </c>
       <c r="G10" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6825</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B11" t="s">
         <v>376</v>
@@ -7478,29 +7483,31 @@
         <v>454</v>
       </c>
       <c r="D11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E11" s="30">
         <v>0.91</v>
       </c>
-      <c r="F11" s="30"/>
+      <c r="F11" s="30">
+        <v>0.78</v>
+      </c>
       <c r="G11" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.7098000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C12" t="s">
         <v>454</v>
       </c>
       <c r="D12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E12" s="30">
         <v>3.9</v>
@@ -7515,16 +7522,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C13" t="s">
         <v>454</v>
       </c>
       <c r="D13" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E13" s="30">
         <v>3.1</v>
@@ -7539,7 +7546,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B14" t="s">
         <v>376</v>
@@ -7548,20 +7555,22 @@
         <v>454</v>
       </c>
       <c r="D14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E14" s="30">
         <v>0.91</v>
       </c>
-      <c r="F14" s="30"/>
+      <c r="F14" s="30">
+        <v>0.75</v>
+      </c>
       <c r="G14" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6825</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B15" t="s">
         <v>376</v>
@@ -7569,15 +7578,17 @@
       <c r="E15" s="30">
         <v>0.91</v>
       </c>
-      <c r="F15" s="30"/>
+      <c r="F15" s="30">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="G15" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.50960000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B16" t="s">
         <v>376</v>
@@ -7585,15 +7596,17 @@
       <c r="E16" s="30">
         <v>0.91</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="30">
+        <v>0.67</v>
+      </c>
       <c r="G16" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.60970000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B17" t="s">
         <v>491</v>
@@ -7602,7 +7615,7 @@
         <v>454</v>
       </c>
       <c r="D17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E17" s="30">
         <v>3.5</v>
@@ -8019,36 +8032,36 @@
         <v>0</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C2" s="51" t="s">
         <v>490</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>489</v>
       </c>
       <c r="F2" s="50" t="s">
+        <v>782</v>
+      </c>
+      <c r="G2" s="50" t="s">
         <v>783</v>
       </c>
-      <c r="G2" s="50" t="s">
-        <v>784</v>
-      </c>
       <c r="H2" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="I2" s="50" t="s">
-        <v>507</v>
-      </c>
       <c r="J2" s="80" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B3">
         <v>0.6</v>
@@ -8057,30 +8070,30 @@
         <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -8089,30 +8102,30 @@
         <v>0.6</v>
       </c>
       <c r="D4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -8121,30 +8134,30 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="D5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -8153,1035 +8166,1035 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="D6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="202" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="204" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="206" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="208" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -9633,21 +9646,21 @@
         <v>311</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B3" t="s">
         <v>454</v>
@@ -9667,7 +9680,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B4" t="s">
         <v>498</v>
@@ -9687,10 +9700,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -9707,7 +9720,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B6" t="s">
         <v>454</v>
@@ -9771,7 +9784,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9789,7 +9802,7 @@
         <v>371</v>
       </c>
       <c r="B1" s="126" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C1" s="127"/>
       <c r="D1" s="127"/>
@@ -9817,36 +9830,36 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>499</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>779</v>
+      </c>
+      <c r="B4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C4" t="s">
+        <v>737</v>
+      </c>
+      <c r="D4" t="s">
+        <v>777</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>780</v>
-      </c>
-      <c r="B4" t="s">
-        <v>738</v>
-      </c>
-      <c r="C4" t="s">
-        <v>738</v>
-      </c>
-      <c r="D4" t="s">
-        <v>778</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -10061,7 +10074,7 @@
       </c>
       <c r="B8"/>
       <c r="C8" s="122" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
@@ -10085,7 +10098,7 @@
       </c>
       <c r="B9" s="94"/>
       <c r="C9" s="109" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D9" s="109"/>
       <c r="E9" s="109"/>
@@ -11758,7 +11771,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="129" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B1" s="129"/>
       <c r="C1" s="129"/>
@@ -11781,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C2" s="78" t="s">
         <v>274</v>
@@ -11790,16 +11803,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="78" t="s">
+        <v>787</v>
+      </c>
+      <c r="F2" s="78" t="s">
+        <v>786</v>
+      </c>
+      <c r="G2" s="78" t="s">
         <v>788</v>
       </c>
-      <c r="F2" s="78" t="s">
-        <v>787</v>
-      </c>
-      <c r="G2" s="78" t="s">
-        <v>789</v>
-      </c>
       <c r="H2" s="78" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I2" s="78" t="s">
         <v>1</v>
@@ -11808,7 +11821,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="78" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L2" s="78" t="s">
         <v>3</v>
@@ -13335,7 +13348,7 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -13429,7 +13442,7 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -13476,7 +13489,7 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -13523,7 +13536,7 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -13570,7 +13583,7 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -13617,7 +13630,7 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -13664,7 +13677,7 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -13711,7 +13724,7 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -13758,7 +13771,7 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -13805,7 +13818,7 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -14601,10 +14614,10 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B62" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -14980,7 +14993,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -18317,7 +18330,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C141" t="s">
         <v>13</v>
@@ -18364,7 +18377,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
@@ -18411,7 +18424,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C143" t="s">
         <v>13</v>
@@ -18458,7 +18471,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C144" t="s">
         <v>13</v>
@@ -18505,7 +18518,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C145" t="s">
         <v>13</v>
@@ -18552,7 +18565,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C146" t="s">
         <v>13</v>
@@ -18599,7 +18612,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
@@ -18646,7 +18659,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C148" t="s">
         <v>13</v>
@@ -18693,7 +18706,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C149" t="s">
         <v>13</v>
@@ -18740,7 +18753,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C150" t="s">
         <v>13</v>
@@ -18787,7 +18800,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C151" t="s">
         <v>13</v>
@@ -18834,7 +18847,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
@@ -18881,7 +18894,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C153" t="s">
         <v>13</v>
@@ -24345,9 +24358,9 @@
   </sheetPr>
   <dimension ref="A1:CF89"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24378,10 +24391,10 @@
         <v>464</v>
       </c>
       <c r="D1" s="83" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1" s="83" t="s">
         <v>526</v>
-      </c>
-      <c r="E1" s="83" t="s">
-        <v>527</v>
       </c>
       <c r="F1" s="124" t="s">
         <v>424</v>
@@ -24403,7 +24416,7 @@
       <c r="U1" s="68"/>
       <c r="V1" s="69"/>
       <c r="Y1" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.2">
@@ -24420,10 +24433,10 @@
         <v>369</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F2" s="84" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G2" s="59" t="s">
         <v>280</v>
@@ -24601,7 +24614,7 @@
         <v>3.3892299515216195</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G4">
         <v>1.9E-2</v>
@@ -24757,7 +24770,7 @@
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B6" t="s">
         <v>268</v>
@@ -24835,7 +24848,7 @@
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B7" t="s">
         <v>266</v>
@@ -24853,7 +24866,7 @@
         <v>0.91666666666666674</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G7">
         <v>0.12</v>
@@ -24901,7 +24914,7 @@
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B8" t="s">
         <v>270</v>
@@ -24919,7 +24932,7 @@
         <v>3.3270321361058603</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G8">
         <v>0.02</v>
@@ -24971,7 +24984,7 @@
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B9" t="s">
         <v>271</v>
@@ -24989,7 +25002,7 @@
         <v>3.3270321361058603</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G9">
         <v>0.02</v>
@@ -25041,7 +25054,7 @@
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B10" t="s">
         <v>272</v>
@@ -25104,10 +25117,10 @@
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C11" t="str">
         <f>IF(_xlfn.XLOOKUP(B11,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B11,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
@@ -25122,7 +25135,7 @@
         <v>0.91666666666666674</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G11">
         <v>0.12</v>
@@ -25170,7 +25183,7 @@
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B12" t="s">
         <v>455</v>
@@ -25228,7 +25241,7 @@
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B13" t="s">
         <v>455</v>
@@ -25286,17 +25299,17 @@
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C14" t="str">
         <f>IF(_xlfn.XLOOKUP(B14,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B14,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
         <v/>
       </c>
       <c r="D14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
@@ -25343,7 +25356,7 @@
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C15" t="str">
         <f>IF(_xlfn.XLOOKUP(B15,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B15,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
@@ -25398,7 +25411,7 @@
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C16" t="str">
         <f>IF(_xlfn.XLOOKUP(B16,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B16,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
@@ -25453,7 +25466,7 @@
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -25500,7 +25513,7 @@
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C18" t="str">
         <f>IF(_xlfn.XLOOKUP(B17,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B17,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
@@ -25555,7 +25568,7 @@
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C19" t="str">
         <f>IF(_xlfn.XLOOKUP(B18,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B18,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
@@ -25610,7 +25623,7 @@
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C20" t="str">
         <f>IF(_xlfn.XLOOKUP(B19,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B19,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
@@ -29074,8 +29087,8 @@
   </sheetPr>
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29102,10 +29115,10 @@
         <v>462</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E1" s="70"/>
       <c r="F1" s="70"/>
@@ -29130,13 +29143,13 @@
         <v>449</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E2" s="43" t="s">
+        <v>801</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>802</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>803</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>266</v>
@@ -29148,16 +29161,16 @@
         <v>270</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L2" s="43" t="s">
         <v>272</v>
       </c>
       <c r="M2" s="45" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -29169,7 +29182,7 @@
       </c>
       <c r="C3" s="36"/>
       <c r="D3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="7" t="s">
@@ -29182,19 +29195,19 @@
         <v>267</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>792</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>793</v>
-      </c>
       <c r="M3" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -29208,7 +29221,7 @@
         <v>0.6</v>
       </c>
       <c r="D4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -29223,38 +29236,140 @@
         <v>267</v>
       </c>
       <c r="I4" t="s">
+        <v>791</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>851</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>806</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" t="s">
+        <v>791</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M5" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>852</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>806</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" t="s">
+        <v>791</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>852</v>
-      </c>
-      <c r="M5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K6" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>853</v>
       </c>
-      <c r="M6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>854</v>
-      </c>
-      <c r="M7"/>
+      <c r="B7" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>806</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I7" t="s">
+        <v>791</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M8"/>
@@ -29512,7 +29627,7 @@
   <mergeCells count="1">
     <mergeCell ref="G1:M1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:E91">
+  <conditionalFormatting sqref="A4:E4 A8:E91 A6:A7 C6:C7 A5:C5 D5:E7">
     <cfRule type="containsBlanks" dxfId="17" priority="8">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
@@ -29522,9 +29637,9 @@
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:H91 J5:M91">
+  <conditionalFormatting sqref="F8:H91 J8:M91">
     <cfRule type="containsBlanks" dxfId="15" priority="7">
-      <formula>LEN(TRIM(F5))=0</formula>
+      <formula>LEN(TRIM(F8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I91">
@@ -29555,7 +29670,7 @@
           <x14:formula1>
             <xm:f>Constructions!$I:$I</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B91 B3</xm:sqref>
+          <xm:sqref>B3 B5:B91</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9CC2B3B4-07E9-E346-95AF-4DA54248B4A2}">
           <x14:formula1>
@@ -29651,21 +29766,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1" s="79" t="s">
         <v>704</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="C1" s="79" t="s">
         <v>705</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C2" s="89" t="s">
         <v>274</v>
@@ -29673,10 +29788,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="95" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C3" s="96">
         <v>1</v>
@@ -29684,10 +29799,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="95" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C4" s="96">
         <v>1</v>
@@ -29695,10 +29810,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="95" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C5" s="96">
         <v>1</v>
@@ -29706,10 +29821,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="95" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C6" s="96">
         <v>1</v>
@@ -29717,10 +29832,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="95" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C7" s="96">
         <v>1</v>
@@ -29756,13 +29871,13 @@
   <sheetData>
     <row r="1" spans="1:27" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
+        <v>635</v>
+      </c>
+      <c r="B1" s="79" t="s">
         <v>636</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="C1" s="123" t="s">
         <v>637</v>
-      </c>
-      <c r="C1" s="123" t="s">
-        <v>638</v>
       </c>
       <c r="D1" s="124"/>
       <c r="E1" s="124"/>
@@ -29791,93 +29906,93 @@
     </row>
     <row r="2" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>274</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D2" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="E2" s="51" t="s">
         <v>583</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="F2" s="51" t="s">
         <v>584</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="G2" s="51" t="s">
         <v>585</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="H2" s="51" t="s">
         <v>586</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="I2" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="J2" s="51" t="s">
         <v>588</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="K2" s="51" t="s">
         <v>589</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="L2" s="51" t="s">
         <v>590</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="M2" s="51" t="s">
         <v>591</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="N2" s="51" t="s">
         <v>592</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="O2" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="P2" s="51" t="s">
         <v>594</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="Q2" s="51" t="s">
         <v>595</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="R2" s="51" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="S2" s="51" t="s">
         <v>597</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="T2" s="51" t="s">
         <v>598</v>
       </c>
-      <c r="T2" s="51" t="s">
+      <c r="U2" s="51" t="s">
         <v>599</v>
       </c>
-      <c r="U2" s="51" t="s">
+      <c r="V2" s="51" t="s">
         <v>600</v>
       </c>
-      <c r="V2" s="51" t="s">
+      <c r="W2" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="W2" s="51" t="s">
+      <c r="X2" s="51" t="s">
         <v>602</v>
       </c>
-      <c r="X2" s="51" t="s">
+      <c r="Y2" s="51" t="s">
         <v>603</v>
       </c>
-      <c r="Y2" s="51" t="s">
+      <c r="Z2" s="51" t="s">
         <v>604</v>
       </c>
-      <c r="Z2" s="51" t="s">
+      <c r="AA2" s="51" t="s">
         <v>605</v>
-      </c>
-      <c r="AA2" s="51" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -29957,118 +30072,118 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(0,100)/100</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:AA4" ca="1" si="0">RANDBETWEEN(0,100)/100</f>
-        <v>0.82</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.48</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.15</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16</v>
+        <v>0.42</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.97</v>
       </c>
       <c r="S4">
         <f ca="1">RANDBETWEEN(0,100)/100</f>
-        <v>0.15</v>
+        <v>0.43</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.98</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53</v>
+        <v>0.72</v>
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>0.51</v>
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92</v>
+        <v>0.2</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.61</v>
       </c>
       <c r="AA4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -30148,10 +30263,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C6">
         <v>24</v>
@@ -30231,10 +30346,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -30314,26 +30429,26 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C10">
         <v>0.45</v>
@@ -30413,18 +30528,18 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C12">
         <v>6.7000000000000004E-2</v>
@@ -30504,26 +30619,26 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C15">
         <v>0.01</v>
@@ -30603,10 +30718,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C16">
         <v>0.01</v>
@@ -30686,10 +30801,10 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -30769,10 +30884,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -30852,92 +30967,92 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -31020,10 +31135,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B1" s="123" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C1" s="124"/>
       <c r="D1" s="124"/>
@@ -31034,277 +31149,277 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
+        <v>608</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>609</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="C2" s="51" t="s">
         <v>610</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="D2" s="51" t="s">
         <v>611</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="E2" s="51" t="s">
         <v>612</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="F2" s="51" t="s">
         <v>613</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="G2" s="51" t="s">
         <v>614</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="H2" s="89" t="s">
         <v>615</v>
-      </c>
-      <c r="H2" s="89" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -31374,13 +31489,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D1" s="131"/>
       <c r="E1" s="131"/>
@@ -31396,518 +31511,518 @@
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C2" s="51" t="s">
+        <v>619</v>
+      </c>
+      <c r="D2" s="51" t="s">
         <v>620</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="E2" s="51" t="s">
         <v>621</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="F2" s="51" t="s">
         <v>622</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="G2" s="51" t="s">
         <v>623</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="H2" s="51" t="s">
         <v>624</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="I2" s="51" t="s">
         <v>625</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="J2" s="51" t="s">
         <v>626</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="K2" s="51" t="s">
         <v>627</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="L2" s="51" t="s">
         <v>628</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="M2" s="51" t="s">
         <v>629</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="N2" s="89" t="s">
         <v>630</v>
-      </c>
-      <c r="N2" s="89" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="M3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="N3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="N4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="L5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="M5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="N5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="M6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B7" t="s">
         <v>455</v>
       </c>
       <c r="C7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G7" t="s">
+        <v>839</v>
+      </c>
+      <c r="H7" t="s">
+        <v>839</v>
+      </c>
+      <c r="I7" t="s">
+        <v>839</v>
+      </c>
+      <c r="J7" t="s">
+        <v>839</v>
+      </c>
+      <c r="K7" t="s">
+        <v>839</v>
+      </c>
+      <c r="L7" t="s">
+        <v>839</v>
+      </c>
+      <c r="M7" t="s">
         <v>840</v>
       </c>
-      <c r="H7" t="s">
+      <c r="N7" t="s">
         <v>840</v>
-      </c>
-      <c r="I7" t="s">
-        <v>840</v>
-      </c>
-      <c r="J7" t="s">
-        <v>840</v>
-      </c>
-      <c r="K7" t="s">
-        <v>840</v>
-      </c>
-      <c r="L7" t="s">
-        <v>840</v>
-      </c>
-      <c r="M7" t="s">
-        <v>841</v>
-      </c>
-      <c r="N7" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="77" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="77" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="77" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="91" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="91" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B16" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -31915,7 +32030,7 @@
         <v>469</v>
       </c>
       <c r="B17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -31923,7 +32038,7 @@
         <v>470</v>
       </c>
       <c r="B18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -31931,7 +32046,7 @@
         <v>471</v>
       </c>
       <c r="B19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -31939,7 +32054,7 @@
         <v>472</v>
       </c>
       <c r="B20" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -31947,7 +32062,7 @@
         <v>473</v>
       </c>
       <c r="B21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -31955,7 +32070,7 @@
         <v>474</v>
       </c>
       <c r="B22" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -31963,7 +32078,7 @@
         <v>475</v>
       </c>
       <c r="B23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -31971,7 +32086,7 @@
         <v>476</v>
       </c>
       <c r="B24" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -31979,7 +32094,7 @@
         <v>477</v>
       </c>
       <c r="B25" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -31987,7 +32102,7 @@
         <v>478</v>
       </c>
       <c r="B26" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -31995,7 +32110,7 @@
         <v>469</v>
       </c>
       <c r="B27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -32003,7 +32118,7 @@
         <v>470</v>
       </c>
       <c r="B28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -32011,7 +32126,7 @@
         <v>471</v>
       </c>
       <c r="B29" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -32019,7 +32134,7 @@
         <v>472</v>
       </c>
       <c r="B30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -32027,7 +32142,7 @@
         <v>473</v>
       </c>
       <c r="B31" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -32035,7 +32150,7 @@
         <v>474</v>
       </c>
       <c r="B32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -32043,7 +32158,7 @@
         <v>475</v>
       </c>
       <c r="B33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -32051,7 +32166,7 @@
         <v>476</v>
       </c>
       <c r="B34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -32059,7 +32174,7 @@
         <v>477</v>
       </c>
       <c r="B35" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -32067,7 +32182,7 @@
         <v>478</v>
       </c>
       <c r="B36" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -32075,7 +32190,7 @@
         <v>469</v>
       </c>
       <c r="B37" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -32083,7 +32198,7 @@
         <v>470</v>
       </c>
       <c r="B38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -32091,7 +32206,7 @@
         <v>471</v>
       </c>
       <c r="B39" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -32099,7 +32214,7 @@
         <v>472</v>
       </c>
       <c r="B40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -32107,7 +32222,7 @@
         <v>473</v>
       </c>
       <c r="B41" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -32115,7 +32230,7 @@
         <v>474</v>
       </c>
       <c r="B42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -32123,7 +32238,7 @@
         <v>475</v>
       </c>
       <c r="B43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -32131,7 +32246,7 @@
         <v>476</v>
       </c>
       <c r="B44" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -32139,7 +32254,7 @@
         <v>477</v>
       </c>
       <c r="B45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -32147,100 +32262,100 @@
         <v>478</v>
       </c>
       <c r="B46" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="91" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="91" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B48" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -33961,13 +34076,13 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B2" t="s">
         <v>765</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>766</v>
-      </c>
-      <c r="C2" t="s">
-        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -34007,7 +34122,7 @@
         <v>444</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>390</v>
@@ -34032,10 +34147,10 @@
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" s="72" t="s">
         <v>634</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>635</v>
       </c>
       <c r="C2" s="72" t="s">
         <v>429</v>
@@ -34184,7 +34299,7 @@
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37" t="s">
@@ -34517,7 +34632,7 @@
     <row r="27" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" t="str">
@@ -34792,16 +34907,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B2" s="43" t="s">
+        <v>663</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>664</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="D2" s="43" t="s">
         <v>665</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>666</v>
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="43"/>
@@ -34810,7 +34925,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -35314,13 +35429,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B1" t="s">
+        <v>669</v>
+      </c>
+      <c r="G1" t="s">
         <v>670</v>
-      </c>
-      <c r="G1" t="s">
-        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -35343,16 +35458,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B1" t="s">
         <v>672</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>673</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>674</v>
-      </c>
-      <c r="D1" t="s">
-        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -35390,7 +35505,7 @@
         <v>492</v>
       </c>
       <c r="H1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -35398,7 +35513,7 @@
         <v>311</v>
       </c>
       <c r="B2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C2" s="50" t="s">
         <v>310</v>
@@ -35407,13 +35522,13 @@
         <v>490</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F2" s="50" t="s">
         <v>489</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H2" s="50" t="s">
         <v>496</v>
@@ -35431,10 +35546,10 @@
         <v>488</v>
       </c>
       <c r="M2" s="78" t="s">
+        <v>505</v>
+      </c>
+      <c r="N2" s="78" t="s">
         <v>506</v>
-      </c>
-      <c r="N2" s="78" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -35442,57 +35557,57 @@
         <v>498</v>
       </c>
       <c r="B3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H3" t="s">
         <v>376</v>
       </c>
       <c r="I3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J3" t="s">
         <v>498</v>
       </c>
       <c r="L3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H4" t="s">
         <v>491</v>
@@ -35501,16 +35616,16 @@
         <v>497</v>
       </c>
       <c r="J4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M4" t="s">
+        <v>644</v>
+      </c>
+      <c r="N4" t="s">
         <v>645</v>
-      </c>
-      <c r="N4" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -35518,42 +35633,42 @@
         <v>454</v>
       </c>
       <c r="D5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J6" t="s">
         <v>454</v>
@@ -35561,7 +35676,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -35599,7 +35714,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -35607,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>274</v>
@@ -35633,7 +35748,7 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="E3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -35650,7 +35765,7 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="E4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -35667,7 +35782,7 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -35684,7 +35799,7 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -35701,12 +35816,12 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="E7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B8">
         <v>0.56000000000000005</v>
@@ -35718,7 +35833,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -35762,32 +35877,32 @@
         <v>369</v>
       </c>
       <c r="B1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1" t="s">
         <v>565</v>
-      </c>
-      <c r="C1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -35949,7 +36064,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G9" t="s">
         <v>301</v>
@@ -35957,7 +36072,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G10" t="s">
         <v>302</v>
@@ -35965,7 +36080,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G11" t="s">
         <v>303</v>
@@ -36018,16 +36133,16 @@
         <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D1" t="s">
         <v>658</v>
       </c>
-      <c r="D1" t="s">
-        <v>659</v>
-      </c>
       <c r="E1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -36047,7 +36162,7 @@
         <v>MA_SFH_lighting</v>
       </c>
       <c r="E2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -36070,7 +36185,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B4" t="str">
         <v>Residential_occ</v>
@@ -36279,13 +36394,13 @@
         <v>272</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>455</v>
@@ -36384,7 +36499,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -36411,10 +36526,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1" s="87" t="s">
         <v>676</v>
-      </c>
-      <c r="B1" s="87" t="s">
-        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -37278,12 +37393,12 @@
         <v>371</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C1" s="102"/>
       <c r="D1" s="102"/>
       <c r="E1" s="99" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -37294,21 +37409,21 @@
         <v>291</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E2" s="97" t="s">
         <v>482</v>
       </c>
       <c r="F2" s="97" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B3" s="103">
         <v>1.6E-2</v>
@@ -37317,18 +37432,18 @@
         <v>1.2</v>
       </c>
       <c r="D3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B4" s="103">
         <v>2.1000000000000001E-2</v>
@@ -37337,277 +37452,277 @@
         <v>1.2</v>
       </c>
       <c r="D4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -37673,12 +37788,12 @@
         <v>371</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C1" s="102"/>
       <c r="D1" s="102"/>
       <c r="E1" s="99" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -37689,27 +37804,27 @@
         <v>484</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>485</v>
       </c>
       <c r="E2" s="80" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B3" s="103">
         <v>6.5</v>
       </c>
       <c r="C3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>313</v>
@@ -37717,16 +37832,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B4">
         <v>4.9000000000000004</v>
       </c>
       <c r="C4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>313</v>
@@ -37734,16 +37849,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B5" s="103">
         <v>2.5</v>
       </c>
       <c r="C5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>313</v>
@@ -37751,16 +37866,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B6" s="103">
         <v>2.2000000000000002</v>
       </c>
       <c r="C6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>313</v>

--- a/tests/data/0311_Template_MAWebApp.xlsx
+++ b/tests/data/0311_Template_MAWebApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryaguettler/Desktop/Research/GloBI/epinterface/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74334A24-9004-794E-8E27-6B570A235CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD8F1DA-FBA0-6345-95E6-0D8EB0C32AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" tabRatio="926" xr2:uid="{46D55ACF-0183-F346-B7C2-C9B3BC712B05}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" tabRatio="926" firstSheet="10" activeTab="22" xr2:uid="{46D55ACF-0183-F346-B7C2-C9B3BC712B05}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="857">
   <si>
     <t>Name</t>
   </si>
@@ -1683,9 +1683,6 @@
   </si>
   <si>
     <t>NaturalGas</t>
-  </si>
-  <si>
-    <t>DHW_old</t>
   </si>
   <si>
     <t>Air_handling_technology</t>
@@ -5875,8 +5872,8 @@
   </sheetPr>
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5910,10 +5907,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>721</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>722</v>
       </c>
       <c r="D3" s="26"/>
       <c r="G3" s="106" t="s">
@@ -5926,13 +5923,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>401</v>
@@ -5944,7 +5941,7 @@
         <v>308</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>400</v>
@@ -5956,52 +5953,52 @@
         <v>369</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G8" s="64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G9" s="28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G10" s="28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="108" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>321</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J11" s="20"/>
     </row>
@@ -6020,7 +6017,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J14" s="20"/>
     </row>
@@ -6037,7 +6034,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>465</v>
@@ -6047,7 +6044,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="19" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>323</v>
@@ -6075,11 +6072,11 @@
         <v>326</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G20"/>
       <c r="H20" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J20" s="20"/>
     </row>
@@ -6087,7 +6084,7 @@
       <c r="A21" s="19"/>
       <c r="G21" s="88"/>
       <c r="H21" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J21" s="20"/>
     </row>
@@ -6115,7 +6112,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G30" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -6166,11 +6163,11 @@
         <v>371</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C1" s="105"/>
       <c r="D1" s="100" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -6181,18 +6178,18 @@
         <v>483</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B3">
         <v>9.8000000000000007</v>
@@ -6201,15 +6198,15 @@
         <v>313</v>
       </c>
       <c r="D3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B4">
         <v>8.5</v>
@@ -6218,15 +6215,15 @@
         <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B5">
         <v>4.8</v>
@@ -6235,15 +6232,15 @@
         <v>313</v>
       </c>
       <c r="D5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B6">
         <v>5.7</v>
@@ -6252,10 +6249,10 @@
         <v>313</v>
       </c>
       <c r="D6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6584,71 +6581,71 @@
         <v>486</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E2" s="54" t="s">
         <v>487</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H2" s="54" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E3">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C4">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E4">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -6715,7 +6712,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6740,294 +6737,294 @@
         <v>0</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B3">
-        <v>2.4048000000000003</v>
+        <v>7.5708200000000003E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="104"/>
       <c r="D4" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D5" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D32" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D39" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D40" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D43" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -7069,8 +7066,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7084,7 +7081,7 @@
         <v>371</v>
       </c>
       <c r="B1" s="123" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C1" s="124"/>
       <c r="D1" s="124"/>
@@ -7096,59 +7093,59 @@
         <v>0</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2" s="51" t="s">
+        <v>658</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>657</v>
+      </c>
+      <c r="E2" s="51" t="s">
         <v>659</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>658</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>660</v>
-      </c>
       <c r="F2" s="51" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B4" t="s">
         <v>750</v>
       </c>
       <c r="C4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -7233,7 +7230,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7253,11 +7250,11 @@
       <c r="C1" s="67"/>
       <c r="D1" s="67"/>
       <c r="E1" s="67" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F1" s="67"/>
       <c r="G1" s="79" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -7271,21 +7268,21 @@
         <v>493</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B3" t="s">
         <v>376</v>
@@ -7294,22 +7291,22 @@
         <v>498</v>
       </c>
       <c r="D3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E3" s="30">
         <v>0.82</v>
       </c>
       <c r="F3" s="30">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="G3" s="85">
         <f>E3*F3</f>
-        <v>0.49199999999999994</v>
+        <v>0.63959999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B4" t="s">
         <v>376</v>
@@ -7318,22 +7315,22 @@
         <v>498</v>
       </c>
       <c r="D4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E4" s="30">
         <v>0.95</v>
       </c>
       <c r="F4" s="30">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="G4" s="85">
         <f t="shared" ref="G4:G57" si="0">E4*F4</f>
-        <v>0.76</v>
+        <v>0.78849999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
@@ -7342,22 +7339,22 @@
         <v>498</v>
       </c>
       <c r="D5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E5" s="30">
         <v>0.8</v>
       </c>
       <c r="F5" s="30">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="G5" s="85">
         <f t="shared" si="0"/>
-        <v>0.48</v>
+        <v>0.62400000000000011</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B6" t="s">
         <v>376</v>
@@ -7366,66 +7363,70 @@
         <v>498</v>
       </c>
       <c r="D6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E6" s="30">
         <v>0.91</v>
       </c>
       <c r="F6" s="30">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="G6" s="85">
         <f t="shared" si="0"/>
-        <v>0.54600000000000004</v>
+        <v>0.7098000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
       <c r="C7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E7" s="30">
         <v>0.91</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="30">
+        <v>0.78</v>
+      </c>
       <c r="G7" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.7098000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B8" t="s">
         <v>376</v>
       </c>
       <c r="C8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E8" s="30">
         <v>0.91</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="30">
+        <v>0.83</v>
+      </c>
       <c r="G8" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75529999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B9" t="s">
         <v>376</v>
@@ -7434,20 +7435,22 @@
         <v>454</v>
       </c>
       <c r="D9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E9" s="30">
         <v>0.91</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="30">
+        <v>0.67</v>
+      </c>
       <c r="G9" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.60970000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B10" t="s">
         <v>376</v>
@@ -7456,20 +7459,22 @@
         <v>454</v>
       </c>
       <c r="D10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E10" s="30">
         <v>0.91</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="30">
+        <v>0.75</v>
+      </c>
       <c r="G10" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6825</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B11" t="s">
         <v>376</v>
@@ -7478,29 +7483,31 @@
         <v>454</v>
       </c>
       <c r="D11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E11" s="30">
         <v>0.91</v>
       </c>
-      <c r="F11" s="30"/>
+      <c r="F11" s="30">
+        <v>0.78</v>
+      </c>
       <c r="G11" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.7098000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C12" t="s">
         <v>454</v>
       </c>
       <c r="D12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E12" s="30">
         <v>3.9</v>
@@ -7515,16 +7522,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C13" t="s">
         <v>454</v>
       </c>
       <c r="D13" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E13" s="30">
         <v>3.1</v>
@@ -7539,7 +7546,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B14" t="s">
         <v>376</v>
@@ -7548,20 +7555,22 @@
         <v>454</v>
       </c>
       <c r="D14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E14" s="30">
         <v>0.91</v>
       </c>
-      <c r="F14" s="30"/>
+      <c r="F14" s="30">
+        <v>0.75</v>
+      </c>
       <c r="G14" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6825</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B15" t="s">
         <v>376</v>
@@ -7569,15 +7578,17 @@
       <c r="E15" s="30">
         <v>0.91</v>
       </c>
-      <c r="F15" s="30"/>
+      <c r="F15" s="30">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="G15" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.50960000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B16" t="s">
         <v>376</v>
@@ -7585,15 +7596,17 @@
       <c r="E16" s="30">
         <v>0.91</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="30">
+        <v>0.67</v>
+      </c>
       <c r="G16" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.60970000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B17" t="s">
         <v>491</v>
@@ -7602,7 +7615,7 @@
         <v>454</v>
       </c>
       <c r="D17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E17" s="30">
         <v>3.5</v>
@@ -8019,36 +8032,36 @@
         <v>0</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C2" s="51" t="s">
         <v>490</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>489</v>
       </c>
       <c r="F2" s="50" t="s">
+        <v>782</v>
+      </c>
+      <c r="G2" s="50" t="s">
         <v>783</v>
       </c>
-      <c r="G2" s="50" t="s">
-        <v>784</v>
-      </c>
       <c r="H2" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="I2" s="50" t="s">
-        <v>507</v>
-      </c>
       <c r="J2" s="80" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B3">
         <v>0.6</v>
@@ -8057,30 +8070,30 @@
         <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -8089,30 +8102,30 @@
         <v>0.6</v>
       </c>
       <c r="D4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -8121,30 +8134,30 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="D5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -8153,1035 +8166,1035 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="D6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="202" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="204" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="206" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="208" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -9633,21 +9646,21 @@
         <v>311</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B3" t="s">
         <v>454</v>
@@ -9667,7 +9680,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B4" t="s">
         <v>498</v>
@@ -9687,10 +9700,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -9707,7 +9720,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B6" t="s">
         <v>454</v>
@@ -9771,7 +9784,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9789,7 +9802,7 @@
         <v>371</v>
       </c>
       <c r="B1" s="126" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C1" s="127"/>
       <c r="D1" s="127"/>
@@ -9817,36 +9830,36 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>499</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>779</v>
+      </c>
+      <c r="B4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C4" t="s">
+        <v>737</v>
+      </c>
+      <c r="D4" t="s">
+        <v>777</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>780</v>
-      </c>
-      <c r="B4" t="s">
-        <v>738</v>
-      </c>
-      <c r="C4" t="s">
-        <v>738</v>
-      </c>
-      <c r="D4" t="s">
-        <v>778</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -10061,7 +10074,7 @@
       </c>
       <c r="B8"/>
       <c r="C8" s="122" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
@@ -10085,7 +10098,7 @@
       </c>
       <c r="B9" s="94"/>
       <c r="C9" s="109" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D9" s="109"/>
       <c r="E9" s="109"/>
@@ -11758,7 +11771,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="129" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B1" s="129"/>
       <c r="C1" s="129"/>
@@ -11781,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C2" s="78" t="s">
         <v>274</v>
@@ -11790,16 +11803,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="78" t="s">
+        <v>787</v>
+      </c>
+      <c r="F2" s="78" t="s">
+        <v>786</v>
+      </c>
+      <c r="G2" s="78" t="s">
         <v>788</v>
       </c>
-      <c r="F2" s="78" t="s">
-        <v>787</v>
-      </c>
-      <c r="G2" s="78" t="s">
-        <v>789</v>
-      </c>
       <c r="H2" s="78" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I2" s="78" t="s">
         <v>1</v>
@@ -11808,7 +11821,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="78" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L2" s="78" t="s">
         <v>3</v>
@@ -13335,7 +13348,7 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -13429,7 +13442,7 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -13476,7 +13489,7 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -13523,7 +13536,7 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -13570,7 +13583,7 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -13617,7 +13630,7 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -13664,7 +13677,7 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -13711,7 +13724,7 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -13758,7 +13771,7 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -13805,7 +13818,7 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -14601,10 +14614,10 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B62" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -14980,7 +14993,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -18317,7 +18330,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C141" t="s">
         <v>13</v>
@@ -18364,7 +18377,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
@@ -18411,7 +18424,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C143" t="s">
         <v>13</v>
@@ -18458,7 +18471,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C144" t="s">
         <v>13</v>
@@ -18505,7 +18518,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C145" t="s">
         <v>13</v>
@@ -18552,7 +18565,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C146" t="s">
         <v>13</v>
@@ -18599,7 +18612,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
@@ -18646,7 +18659,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C148" t="s">
         <v>13</v>
@@ -18693,7 +18706,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C149" t="s">
         <v>13</v>
@@ -18740,7 +18753,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C150" t="s">
         <v>13</v>
@@ -18787,7 +18800,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C151" t="s">
         <v>13</v>
@@ -18834,7 +18847,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
@@ -18881,7 +18894,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C153" t="s">
         <v>13</v>
@@ -24345,9 +24358,9 @@
   </sheetPr>
   <dimension ref="A1:CF89"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24378,10 +24391,10 @@
         <v>464</v>
       </c>
       <c r="D1" s="83" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1" s="83" t="s">
         <v>526</v>
-      </c>
-      <c r="E1" s="83" t="s">
-        <v>527</v>
       </c>
       <c r="F1" s="124" t="s">
         <v>424</v>
@@ -24403,7 +24416,7 @@
       <c r="U1" s="68"/>
       <c r="V1" s="69"/>
       <c r="Y1" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.2">
@@ -24420,10 +24433,10 @@
         <v>369</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F2" s="84" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G2" s="59" t="s">
         <v>280</v>
@@ -24601,7 +24614,7 @@
         <v>3.3892299515216195</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G4">
         <v>1.9E-2</v>
@@ -24757,7 +24770,7 @@
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B6" t="s">
         <v>268</v>
@@ -24835,7 +24848,7 @@
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B7" t="s">
         <v>266</v>
@@ -24853,7 +24866,7 @@
         <v>0.91666666666666674</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G7">
         <v>0.12</v>
@@ -24901,7 +24914,7 @@
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B8" t="s">
         <v>270</v>
@@ -24919,7 +24932,7 @@
         <v>3.3270321361058603</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G8">
         <v>0.02</v>
@@ -24971,7 +24984,7 @@
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B9" t="s">
         <v>271</v>
@@ -24989,7 +25002,7 @@
         <v>3.3270321361058603</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G9">
         <v>0.02</v>
@@ -25041,7 +25054,7 @@
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B10" t="s">
         <v>272</v>
@@ -25104,10 +25117,10 @@
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C11" t="str">
         <f>IF(_xlfn.XLOOKUP(B11,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B11,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
@@ -25122,7 +25135,7 @@
         <v>0.91666666666666674</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G11">
         <v>0.12</v>
@@ -25170,7 +25183,7 @@
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B12" t="s">
         <v>455</v>
@@ -25228,7 +25241,7 @@
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B13" t="s">
         <v>455</v>
@@ -25286,17 +25299,17 @@
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C14" t="str">
         <f>IF(_xlfn.XLOOKUP(B14,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B14,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
         <v/>
       </c>
       <c r="D14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
@@ -25343,11 +25356,14 @@
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>844</v>
+        <v>843</v>
+      </c>
+      <c r="B15" t="s">
+        <v>268</v>
       </c>
       <c r="C15" t="str">
         <f>IF(_xlfn.XLOOKUP(B15,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B15,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
-        <v>Waiting for inputs in Column B</v>
+        <v>Construction for the outer and inner roofs of the building</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -25398,11 +25414,14 @@
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>845</v>
+        <v>844</v>
+      </c>
+      <c r="B16" t="s">
+        <v>268</v>
       </c>
       <c r="C16" t="str">
         <f>IF(_xlfn.XLOOKUP(B16,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B16,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
-        <v>Waiting for inputs in Column B</v>
+        <v>Construction for the outer and inner roofs of the building</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -25453,7 +25472,10 @@
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>846</v>
+        <v>845</v>
+      </c>
+      <c r="B17" t="s">
+        <v>268</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -25500,11 +25522,14 @@
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>847</v>
+        <v>846</v>
+      </c>
+      <c r="B18" t="s">
+        <v>270</v>
       </c>
       <c r="C18" t="str">
         <f>IF(_xlfn.XLOOKUP(B17,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B17,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
-        <v>Waiting for inputs in Column B</v>
+        <v>Construction for the outer and inner roofs of the building</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -25555,11 +25580,14 @@
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>848</v>
+        <v>847</v>
+      </c>
+      <c r="B19" t="s">
+        <v>270</v>
       </c>
       <c r="C19" t="str">
         <f>IF(_xlfn.XLOOKUP(B18,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B18,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
-        <v>Waiting for inputs in Column B</v>
+        <v>Construction for the outer walls/façade of the building</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -25610,11 +25638,14 @@
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>849</v>
+        <v>848</v>
+      </c>
+      <c r="B20" t="s">
+        <v>270</v>
       </c>
       <c r="C20" t="str">
         <f>IF(_xlfn.XLOOKUP(B19,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B19,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
-        <v>Waiting for inputs in Column B</v>
+        <v>Construction for the outer walls/façade of the building</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -25666,7 +25697,7 @@
     <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="C21" t="str">
         <f>IF(_xlfn.XLOOKUP(B20,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B20,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
-        <v>Waiting for inputs in Column B</v>
+        <v>Construction for the outer walls/façade of the building</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -29003,7 +29034,7 @@
   <mergeCells count="1">
     <mergeCell ref="F1:M1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:B83 R6:R83">
+  <conditionalFormatting sqref="R6:R83 A6:B83">
     <cfRule type="containsBlanks" dxfId="23" priority="9">
       <formula>LEN(TRIM(A6))=0</formula>
     </cfRule>
@@ -29036,7 +29067,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B5B1DDB0-401F-D640-AA84-BB55E26336C9}">
           <x14:formula1>
             <xm:f>Drop_downs!$A$3:$A$9</xm:f>
@@ -29074,8 +29105,8 @@
   </sheetPr>
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29102,10 +29133,10 @@
         <v>462</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E1" s="70"/>
       <c r="F1" s="70"/>
@@ -29130,13 +29161,13 @@
         <v>449</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E2" s="43" t="s">
+        <v>801</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>802</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>803</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>266</v>
@@ -29148,16 +29179,16 @@
         <v>270</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L2" s="43" t="s">
         <v>272</v>
       </c>
       <c r="M2" s="45" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -29169,7 +29200,7 @@
       </c>
       <c r="C3" s="36"/>
       <c r="D3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="7" t="s">
@@ -29182,19 +29213,19 @@
         <v>267</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>792</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>793</v>
-      </c>
       <c r="M3" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -29208,7 +29239,7 @@
         <v>0.6</v>
       </c>
       <c r="D4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -29223,38 +29254,140 @@
         <v>267</v>
       </c>
       <c r="I4" t="s">
+        <v>791</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>851</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>806</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" t="s">
+        <v>791</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M5" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>852</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>806</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" t="s">
+        <v>791</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>852</v>
-      </c>
-      <c r="M5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K6" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>853</v>
       </c>
-      <c r="M6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>854</v>
-      </c>
-      <c r="M7"/>
+      <c r="B7" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>806</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I7" t="s">
+        <v>791</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M8"/>
@@ -29512,7 +29645,7 @@
   <mergeCells count="1">
     <mergeCell ref="G1:M1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:E91">
+  <conditionalFormatting sqref="A4:E4 A8:E91 A6:A7 C6:C7 A5:C5 D5:E7">
     <cfRule type="containsBlanks" dxfId="17" priority="8">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
@@ -29522,9 +29655,9 @@
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:H91 J5:M91">
+  <conditionalFormatting sqref="F8:H91 J8:M91">
     <cfRule type="containsBlanks" dxfId="15" priority="7">
-      <formula>LEN(TRIM(F5))=0</formula>
+      <formula>LEN(TRIM(F8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I91">
@@ -29555,7 +29688,7 @@
           <x14:formula1>
             <xm:f>Constructions!$I:$I</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B91 B3</xm:sqref>
+          <xm:sqref>B3 B5:B91</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9CC2B3B4-07E9-E346-95AF-4DA54248B4A2}">
           <x14:formula1>
@@ -29651,21 +29784,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1" s="79" t="s">
         <v>704</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="C1" s="79" t="s">
         <v>705</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C2" s="89" t="s">
         <v>274</v>
@@ -29673,10 +29806,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="95" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C3" s="96">
         <v>1</v>
@@ -29684,10 +29817,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="95" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C4" s="96">
         <v>1</v>
@@ -29695,10 +29828,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="95" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C5" s="96">
         <v>1</v>
@@ -29706,10 +29839,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="95" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C6" s="96">
         <v>1</v>
@@ -29717,10 +29850,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="95" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C7" s="96">
         <v>1</v>
@@ -29756,13 +29889,13 @@
   <sheetData>
     <row r="1" spans="1:27" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
+        <v>635</v>
+      </c>
+      <c r="B1" s="79" t="s">
         <v>636</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="C1" s="123" t="s">
         <v>637</v>
-      </c>
-      <c r="C1" s="123" t="s">
-        <v>638</v>
       </c>
       <c r="D1" s="124"/>
       <c r="E1" s="124"/>
@@ -29791,93 +29924,93 @@
     </row>
     <row r="2" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>274</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D2" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="E2" s="51" t="s">
         <v>583</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="F2" s="51" t="s">
         <v>584</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="G2" s="51" t="s">
         <v>585</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="H2" s="51" t="s">
         <v>586</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="I2" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="J2" s="51" t="s">
         <v>588</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="K2" s="51" t="s">
         <v>589</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="L2" s="51" t="s">
         <v>590</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="M2" s="51" t="s">
         <v>591</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="N2" s="51" t="s">
         <v>592</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="O2" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="P2" s="51" t="s">
         <v>594</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="Q2" s="51" t="s">
         <v>595</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="R2" s="51" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="S2" s="51" t="s">
         <v>597</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="T2" s="51" t="s">
         <v>598</v>
       </c>
-      <c r="T2" s="51" t="s">
+      <c r="U2" s="51" t="s">
         <v>599</v>
       </c>
-      <c r="U2" s="51" t="s">
+      <c r="V2" s="51" t="s">
         <v>600</v>
       </c>
-      <c r="V2" s="51" t="s">
+      <c r="W2" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="W2" s="51" t="s">
+      <c r="X2" s="51" t="s">
         <v>602</v>
       </c>
-      <c r="X2" s="51" t="s">
+      <c r="Y2" s="51" t="s">
         <v>603</v>
       </c>
-      <c r="Y2" s="51" t="s">
+      <c r="Z2" s="51" t="s">
         <v>604</v>
       </c>
-      <c r="Z2" s="51" t="s">
+      <c r="AA2" s="51" t="s">
         <v>605</v>
-      </c>
-      <c r="AA2" s="51" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -29957,118 +30090,118 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(0,100)/100</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.98</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:AA4" ca="1" si="0">RANDBETWEEN(0,100)/100</f>
-        <v>0.82</v>
+        <v>0.64</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22</v>
+        <v>0.9</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98</v>
+        <v>0.22</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.75</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>0.71</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.99</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.81</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>0.89</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43</v>
+        <v>0.09</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16</v>
+        <v>0.82</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S4">
         <f ca="1">RANDBETWEEN(0,100)/100</f>
-        <v>0.15</v>
+        <v>0.68</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.34</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92</v>
+        <v>0.72</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AA4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -30148,10 +30281,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C6">
         <v>24</v>
@@ -30231,10 +30364,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -30314,26 +30447,26 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C10">
         <v>0.45</v>
@@ -30413,18 +30546,18 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C12">
         <v>6.7000000000000004E-2</v>
@@ -30504,26 +30637,26 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C15">
         <v>0.01</v>
@@ -30603,10 +30736,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C16">
         <v>0.01</v>
@@ -30686,10 +30819,10 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -30769,10 +30902,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -30852,92 +30985,92 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -31020,10 +31153,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B1" s="123" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C1" s="124"/>
       <c r="D1" s="124"/>
@@ -31034,277 +31167,277 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
+        <v>608</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>609</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="C2" s="51" t="s">
         <v>610</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="D2" s="51" t="s">
         <v>611</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="E2" s="51" t="s">
         <v>612</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="F2" s="51" t="s">
         <v>613</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="G2" s="51" t="s">
         <v>614</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="H2" s="89" t="s">
         <v>615</v>
-      </c>
-      <c r="H2" s="89" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -31374,13 +31507,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D1" s="131"/>
       <c r="E1" s="131"/>
@@ -31396,518 +31529,518 @@
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C2" s="51" t="s">
+        <v>619</v>
+      </c>
+      <c r="D2" s="51" t="s">
         <v>620</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="E2" s="51" t="s">
         <v>621</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="F2" s="51" t="s">
         <v>622</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="G2" s="51" t="s">
         <v>623</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="H2" s="51" t="s">
         <v>624</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="I2" s="51" t="s">
         <v>625</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="J2" s="51" t="s">
         <v>626</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="K2" s="51" t="s">
         <v>627</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="L2" s="51" t="s">
         <v>628</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="M2" s="51" t="s">
         <v>629</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="N2" s="89" t="s">
         <v>630</v>
-      </c>
-      <c r="N2" s="89" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="M3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="N3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="N4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="L5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="M5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="N5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="M6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B7" t="s">
         <v>455</v>
       </c>
       <c r="C7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G7" t="s">
+        <v>839</v>
+      </c>
+      <c r="H7" t="s">
+        <v>839</v>
+      </c>
+      <c r="I7" t="s">
+        <v>839</v>
+      </c>
+      <c r="J7" t="s">
+        <v>839</v>
+      </c>
+      <c r="K7" t="s">
+        <v>839</v>
+      </c>
+      <c r="L7" t="s">
+        <v>839</v>
+      </c>
+      <c r="M7" t="s">
         <v>840</v>
       </c>
-      <c r="H7" t="s">
+      <c r="N7" t="s">
         <v>840</v>
-      </c>
-      <c r="I7" t="s">
-        <v>840</v>
-      </c>
-      <c r="J7" t="s">
-        <v>840</v>
-      </c>
-      <c r="K7" t="s">
-        <v>840</v>
-      </c>
-      <c r="L7" t="s">
-        <v>840</v>
-      </c>
-      <c r="M7" t="s">
-        <v>841</v>
-      </c>
-      <c r="N7" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="77" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="77" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="77" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="91" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="91" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B16" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -31915,7 +32048,7 @@
         <v>469</v>
       </c>
       <c r="B17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -31923,7 +32056,7 @@
         <v>470</v>
       </c>
       <c r="B18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -31931,7 +32064,7 @@
         <v>471</v>
       </c>
       <c r="B19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -31939,7 +32072,7 @@
         <v>472</v>
       </c>
       <c r="B20" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -31947,7 +32080,7 @@
         <v>473</v>
       </c>
       <c r="B21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -31955,7 +32088,7 @@
         <v>474</v>
       </c>
       <c r="B22" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -31963,7 +32096,7 @@
         <v>475</v>
       </c>
       <c r="B23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -31971,7 +32104,7 @@
         <v>476</v>
       </c>
       <c r="B24" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -31979,7 +32112,7 @@
         <v>477</v>
       </c>
       <c r="B25" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -31987,7 +32120,7 @@
         <v>478</v>
       </c>
       <c r="B26" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -31995,7 +32128,7 @@
         <v>469</v>
       </c>
       <c r="B27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -32003,7 +32136,7 @@
         <v>470</v>
       </c>
       <c r="B28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -32011,7 +32144,7 @@
         <v>471</v>
       </c>
       <c r="B29" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -32019,7 +32152,7 @@
         <v>472</v>
       </c>
       <c r="B30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -32027,7 +32160,7 @@
         <v>473</v>
       </c>
       <c r="B31" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -32035,7 +32168,7 @@
         <v>474</v>
       </c>
       <c r="B32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -32043,7 +32176,7 @@
         <v>475</v>
       </c>
       <c r="B33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -32051,7 +32184,7 @@
         <v>476</v>
       </c>
       <c r="B34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -32059,7 +32192,7 @@
         <v>477</v>
       </c>
       <c r="B35" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -32067,7 +32200,7 @@
         <v>478</v>
       </c>
       <c r="B36" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -32075,7 +32208,7 @@
         <v>469</v>
       </c>
       <c r="B37" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -32083,7 +32216,7 @@
         <v>470</v>
       </c>
       <c r="B38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -32091,7 +32224,7 @@
         <v>471</v>
       </c>
       <c r="B39" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -32099,7 +32232,7 @@
         <v>472</v>
       </c>
       <c r="B40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -32107,7 +32240,7 @@
         <v>473</v>
       </c>
       <c r="B41" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -32115,7 +32248,7 @@
         <v>474</v>
       </c>
       <c r="B42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -32123,7 +32256,7 @@
         <v>475</v>
       </c>
       <c r="B43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -32131,7 +32264,7 @@
         <v>476</v>
       </c>
       <c r="B44" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -32139,7 +32272,7 @@
         <v>477</v>
       </c>
       <c r="B45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -32147,100 +32280,100 @@
         <v>478</v>
       </c>
       <c r="B46" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="91" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="91" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B48" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -33961,13 +34094,13 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B2" t="s">
         <v>765</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>766</v>
-      </c>
-      <c r="C2" t="s">
-        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -34007,7 +34140,7 @@
         <v>444</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>390</v>
@@ -34032,10 +34165,10 @@
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" s="72" t="s">
         <v>634</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>635</v>
       </c>
       <c r="C2" s="72" t="s">
         <v>429</v>
@@ -34184,7 +34317,7 @@
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37" t="s">
@@ -34517,7 +34650,7 @@
     <row r="27" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" t="str">
@@ -34792,16 +34925,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B2" s="43" t="s">
+        <v>663</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>664</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="D2" s="43" t="s">
         <v>665</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>666</v>
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="43"/>
@@ -34810,7 +34943,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -35314,13 +35447,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B1" t="s">
+        <v>669</v>
+      </c>
+      <c r="G1" t="s">
         <v>670</v>
-      </c>
-      <c r="G1" t="s">
-        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -35343,16 +35476,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B1" t="s">
         <v>672</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>673</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>674</v>
-      </c>
-      <c r="D1" t="s">
-        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -35390,7 +35523,7 @@
         <v>492</v>
       </c>
       <c r="H1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -35398,7 +35531,7 @@
         <v>311</v>
       </c>
       <c r="B2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C2" s="50" t="s">
         <v>310</v>
@@ -35407,13 +35540,13 @@
         <v>490</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F2" s="50" t="s">
         <v>489</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H2" s="50" t="s">
         <v>496</v>
@@ -35431,10 +35564,10 @@
         <v>488</v>
       </c>
       <c r="M2" s="78" t="s">
+        <v>505</v>
+      </c>
+      <c r="N2" s="78" t="s">
         <v>506</v>
-      </c>
-      <c r="N2" s="78" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -35442,57 +35575,57 @@
         <v>498</v>
       </c>
       <c r="B3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H3" t="s">
         <v>376</v>
       </c>
       <c r="I3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J3" t="s">
         <v>498</v>
       </c>
       <c r="L3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H4" t="s">
         <v>491</v>
@@ -35501,16 +35634,16 @@
         <v>497</v>
       </c>
       <c r="J4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M4" t="s">
+        <v>644</v>
+      </c>
+      <c r="N4" t="s">
         <v>645</v>
-      </c>
-      <c r="N4" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -35518,42 +35651,42 @@
         <v>454</v>
       </c>
       <c r="D5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J6" t="s">
         <v>454</v>
@@ -35561,7 +35694,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -35599,7 +35732,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -35607,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>274</v>
@@ -35633,7 +35766,7 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="E3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -35650,7 +35783,7 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="E4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -35667,7 +35800,7 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -35684,7 +35817,7 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -35701,12 +35834,12 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="E7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B8">
         <v>0.56000000000000005</v>
@@ -35718,7 +35851,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -35762,32 +35895,32 @@
         <v>369</v>
       </c>
       <c r="B1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1" t="s">
         <v>565</v>
-      </c>
-      <c r="C1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -35949,7 +36082,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G9" t="s">
         <v>301</v>
@@ -35957,7 +36090,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G10" t="s">
         <v>302</v>
@@ -35965,7 +36098,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G11" t="s">
         <v>303</v>
@@ -36018,16 +36151,16 @@
         <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D1" t="s">
         <v>658</v>
       </c>
-      <c r="D1" t="s">
-        <v>659</v>
-      </c>
       <c r="E1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -36047,7 +36180,7 @@
         <v>MA_SFH_lighting</v>
       </c>
       <c r="E2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -36070,7 +36203,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B4" t="str">
         <v>Residential_occ</v>
@@ -36279,13 +36412,13 @@
         <v>272</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>455</v>
@@ -36297,11 +36430,11 @@
         <v>Template_MA_SF_OLD</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:B3">_xlfn._xlws.FILTER(IF(Construction_components!$B:$B=B$1,Construction_components!$A:$A,""),IF(Construction_components!$B:$B=B$1,Construction_components!$A:$A,"")&lt;&gt;"")</f>
+        <f t="array" ref="B2:B6">_xlfn._xlws.FILTER(IF(Construction_components!$B:$B=B$1,Construction_components!$A:$A,""),IF(Construction_components!$B:$B=B$1,Construction_components!$A:$A,"")&lt;&gt;"")</f>
         <v>Template_MA_MF_NEW_roof</v>
       </c>
       <c r="C2" t="str" cm="1">
-        <f t="array" ref="C2:C3">_xlfn._xlws.FILTER(IF(Construction_components!$B:$B=C$1,Construction_components!$A:$A,""),IF(Construction_components!$B:$B=C$1,Construction_components!$A:$A,"")&lt;&gt;"")</f>
+        <f t="array" ref="C2:C6">_xlfn._xlws.FILTER(IF(Construction_components!$B:$B=C$1,Construction_components!$A:$A,""),IF(Construction_components!$B:$B=C$1,Construction_components!$A:$A,"")&lt;&gt;"")</f>
         <v>TEMPLATE_MF_MA_LOW_facade</v>
       </c>
       <c r="D2" t="str" cm="1">
@@ -36339,16 +36472,34 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="str">
+        <v>Low_insulation_roof_MA_SFH</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Low_insulation_wall_MA_SFH</v>
+      </c>
       <c r="I4" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="str">
+        <v>Medium_insulation_roof_MA_SFH</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Med_insulation_wall_MA_SFH</v>
+      </c>
       <c r="I5" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="str">
+        <v>High_insulation_roof_MA_SFH</v>
+      </c>
+      <c r="C6" t="str">
+        <v>High_insulation_wall_MA_SFH</v>
+      </c>
       <c r="I6" t="s">
         <v>461</v>
       </c>
@@ -36384,7 +36535,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -36411,10 +36562,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1" s="87" t="s">
         <v>676</v>
-      </c>
-      <c r="B1" s="87" t="s">
-        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -37278,12 +37429,12 @@
         <v>371</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C1" s="102"/>
       <c r="D1" s="102"/>
       <c r="E1" s="99" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -37294,21 +37445,21 @@
         <v>291</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E2" s="97" t="s">
         <v>482</v>
       </c>
       <c r="F2" s="97" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B3" s="103">
         <v>1.6E-2</v>
@@ -37317,18 +37468,18 @@
         <v>1.2</v>
       </c>
       <c r="D3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B4" s="103">
         <v>2.1000000000000001E-2</v>
@@ -37337,277 +37488,277 @@
         <v>1.2</v>
       </c>
       <c r="D4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -37673,12 +37824,12 @@
         <v>371</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C1" s="102"/>
       <c r="D1" s="102"/>
       <c r="E1" s="99" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -37689,27 +37840,27 @@
         <v>484</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>485</v>
       </c>
       <c r="E2" s="80" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B3" s="103">
         <v>6.5</v>
       </c>
       <c r="C3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>313</v>
@@ -37717,16 +37868,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B4">
         <v>4.9000000000000004</v>
       </c>
       <c r="C4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>313</v>
@@ -37734,16 +37885,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B5" s="103">
         <v>2.5</v>
       </c>
       <c r="C5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>313</v>
@@ -37751,16 +37902,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B6" s="103">
         <v>2.2000000000000002</v>
       </c>
       <c r="C6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>313</v>

--- a/tests/data/0311_Template_MAWebApp.xlsx
+++ b/tests/data/0311_Template_MAWebApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryaguettler/Desktop/Research/GloBI/epinterface/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4761CDD3-12C7-0541-A72A-D2EFB63557EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD8F1DA-FBA0-6345-95E6-0D8EB0C32AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" tabRatio="926" firstSheet="10" activeTab="23" xr2:uid="{46D55ACF-0183-F346-B7C2-C9B3BC712B05}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" tabRatio="926" firstSheet="10" activeTab="22" xr2:uid="{46D55ACF-0183-F346-B7C2-C9B3BC712B05}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3145" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="857">
   <si>
     <t>Name</t>
   </si>
@@ -24358,9 +24358,9 @@
   </sheetPr>
   <dimension ref="A1:CF89"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25358,9 +25358,12 @@
       <c r="A15" t="s">
         <v>843</v>
       </c>
+      <c r="B15" t="s">
+        <v>268</v>
+      </c>
       <c r="C15" t="str">
         <f>IF(_xlfn.XLOOKUP(B15,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B15,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
-        <v>Waiting for inputs in Column B</v>
+        <v>Construction for the outer and inner roofs of the building</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -25413,9 +25416,12 @@
       <c r="A16" t="s">
         <v>844</v>
       </c>
+      <c r="B16" t="s">
+        <v>268</v>
+      </c>
       <c r="C16" t="str">
         <f>IF(_xlfn.XLOOKUP(B16,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B16,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
-        <v>Waiting for inputs in Column B</v>
+        <v>Construction for the outer and inner roofs of the building</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -25468,6 +25474,9 @@
       <c r="A17" t="s">
         <v>845</v>
       </c>
+      <c r="B17" t="s">
+        <v>268</v>
+      </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>[]</v>
@@ -25515,9 +25524,12 @@
       <c r="A18" t="s">
         <v>846</v>
       </c>
+      <c r="B18" t="s">
+        <v>270</v>
+      </c>
       <c r="C18" t="str">
         <f>IF(_xlfn.XLOOKUP(B17,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B17,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
-        <v>Waiting for inputs in Column B</v>
+        <v>Construction for the outer and inner roofs of the building</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -25570,9 +25582,12 @@
       <c r="A19" t="s">
         <v>847</v>
       </c>
+      <c r="B19" t="s">
+        <v>270</v>
+      </c>
       <c r="C19" t="str">
         <f>IF(_xlfn.XLOOKUP(B18,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B18,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
-        <v>Waiting for inputs in Column B</v>
+        <v>Construction for the outer walls/façade of the building</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -25625,9 +25640,12 @@
       <c r="A20" t="s">
         <v>848</v>
       </c>
+      <c r="B20" t="s">
+        <v>270</v>
+      </c>
       <c r="C20" t="str">
         <f>IF(_xlfn.XLOOKUP(B19,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B19,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
-        <v>Waiting for inputs in Column B</v>
+        <v>Construction for the outer walls/façade of the building</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -25679,7 +25697,7 @@
     <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="C21" t="str">
         <f>IF(_xlfn.XLOOKUP(B20,Units!$A$2:$A$100,Units!$C$2:$C$100,"")=0,"Waiting for inputs in Column B",_xlfn.XLOOKUP(B20,Units!$A$2:$A$100,Units!$C$2:$C$100,""))</f>
-        <v>Waiting for inputs in Column B</v>
+        <v>Construction for the outer walls/façade of the building</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -29016,7 +29034,7 @@
   <mergeCells count="1">
     <mergeCell ref="F1:M1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:B83 R6:R83">
+  <conditionalFormatting sqref="R6:R83 A6:B83">
     <cfRule type="containsBlanks" dxfId="23" priority="9">
       <formula>LEN(TRIM(A6))=0</formula>
     </cfRule>
@@ -29049,7 +29067,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B5B1DDB0-401F-D640-AA84-BB55E26336C9}">
           <x14:formula1>
             <xm:f>Drop_downs!$A$3:$A$9</xm:f>
@@ -29087,8 +29105,8 @@
   </sheetPr>
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30079,103 +30097,103 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(0,100)/100</f>
-        <v>0.08</v>
+        <v>0.98</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:AA4" ca="1" si="0">RANDBETWEEN(0,100)/100</f>
-        <v>0.28999999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32</v>
+        <v>0.9</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>0.21</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78</v>
+        <v>0.71</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>0.99</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.81</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34</v>
+        <v>0.89</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72</v>
+        <v>0.5</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42</v>
+        <v>0.82</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S4">
         <f ca="1">RANDBETWEEN(0,100)/100</f>
-        <v>0.43</v>
+        <v>0.68</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98</v>
+        <v>0.34</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51</v>
+        <v>0.04</v>
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.72</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61</v>
+        <v>0.46</v>
       </c>
       <c r="AA4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -36412,11 +36430,11 @@
         <v>Template_MA_SF_OLD</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:B3">_xlfn._xlws.FILTER(IF(Construction_components!$B:$B=B$1,Construction_components!$A:$A,""),IF(Construction_components!$B:$B=B$1,Construction_components!$A:$A,"")&lt;&gt;"")</f>
+        <f t="array" ref="B2:B6">_xlfn._xlws.FILTER(IF(Construction_components!$B:$B=B$1,Construction_components!$A:$A,""),IF(Construction_components!$B:$B=B$1,Construction_components!$A:$A,"")&lt;&gt;"")</f>
         <v>Template_MA_MF_NEW_roof</v>
       </c>
       <c r="C2" t="str" cm="1">
-        <f t="array" ref="C2:C3">_xlfn._xlws.FILTER(IF(Construction_components!$B:$B=C$1,Construction_components!$A:$A,""),IF(Construction_components!$B:$B=C$1,Construction_components!$A:$A,"")&lt;&gt;"")</f>
+        <f t="array" ref="C2:C6">_xlfn._xlws.FILTER(IF(Construction_components!$B:$B=C$1,Construction_components!$A:$A,""),IF(Construction_components!$B:$B=C$1,Construction_components!$A:$A,"")&lt;&gt;"")</f>
         <v>TEMPLATE_MF_MA_LOW_facade</v>
       </c>
       <c r="D2" t="str" cm="1">
@@ -36454,16 +36472,34 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="str">
+        <v>Low_insulation_roof_MA_SFH</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Low_insulation_wall_MA_SFH</v>
+      </c>
       <c r="I4" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="str">
+        <v>Medium_insulation_roof_MA_SFH</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Med_insulation_wall_MA_SFH</v>
+      </c>
       <c r="I5" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="str">
+        <v>High_insulation_roof_MA_SFH</v>
+      </c>
+      <c r="C6" t="str">
+        <v>High_insulation_wall_MA_SFH</v>
+      </c>
       <c r="I6" t="s">
         <v>461</v>
       </c>
